--- a/analysis/KEGG_raw_data/PNA79_30m_vs_PNAscr_30m_KEGG_FNV_30.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_30m_vs_PNAscr_30m_KEGG_FNV_30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="301">
   <si>
     <t>NGenes</t>
   </si>
@@ -44,147 +44,168 @@
     <t>fnc00010</t>
   </si>
   <si>
+    <t>fnc00760</t>
+  </si>
+  <si>
     <t>fnc00040</t>
   </si>
   <si>
     <t>fnc00523</t>
   </si>
   <si>
-    <t>fnc00760</t>
+    <t>fnc00640</t>
+  </si>
+  <si>
+    <t>fnc03030</t>
+  </si>
+  <si>
+    <t>fnc00300</t>
+  </si>
+  <si>
+    <t>fnc00620</t>
+  </si>
+  <si>
+    <t>fnc00280</t>
+  </si>
+  <si>
+    <t>fnc00071</t>
+  </si>
+  <si>
+    <t>fnc01212</t>
+  </si>
+  <si>
+    <t>fnc00562</t>
+  </si>
+  <si>
+    <t>fnc00500</t>
+  </si>
+  <si>
+    <t>fnc00290</t>
+  </si>
+  <si>
+    <t>fnc00330</t>
+  </si>
+  <si>
+    <t>fnc00250</t>
+  </si>
+  <si>
+    <t>fnc00450</t>
+  </si>
+  <si>
+    <t>fnc00340</t>
+  </si>
+  <si>
+    <t>fnc00630</t>
+  </si>
+  <si>
+    <t>fnc00380</t>
+  </si>
+  <si>
+    <t>fnc02010</t>
+  </si>
+  <si>
+    <t>fnc00061</t>
+  </si>
+  <si>
+    <t>fnc01250</t>
+  </si>
+  <si>
+    <t>fnc00720</t>
+  </si>
+  <si>
+    <t>fnc00410</t>
+  </si>
+  <si>
+    <t>fnc03010</t>
+  </si>
+  <si>
+    <t>fnc00430</t>
+  </si>
+  <si>
+    <t>fnc00540</t>
+  </si>
+  <si>
+    <t>fnc00190</t>
+  </si>
+  <si>
+    <t>fnc01232</t>
+  </si>
+  <si>
+    <t>fnc00460</t>
   </si>
   <si>
     <t>fnc00670</t>
   </si>
   <si>
-    <t>fnc00640</t>
-  </si>
-  <si>
-    <t>fnc03030</t>
-  </si>
-  <si>
-    <t>fnc00300</t>
-  </si>
-  <si>
-    <t>fnc00620</t>
-  </si>
-  <si>
-    <t>fnc00280</t>
-  </si>
-  <si>
-    <t>fnc00071</t>
-  </si>
-  <si>
-    <t>fnc01212</t>
-  </si>
-  <si>
-    <t>fnc00562</t>
-  </si>
-  <si>
-    <t>fnc00500</t>
-  </si>
-  <si>
-    <t>fnc00290</t>
-  </si>
-  <si>
-    <t>fnc00330</t>
-  </si>
-  <si>
-    <t>fnc00250</t>
-  </si>
-  <si>
-    <t>fnc00450</t>
-  </si>
-  <si>
-    <t>fnc00340</t>
-  </si>
-  <si>
-    <t>fnc00630</t>
-  </si>
-  <si>
-    <t>fnc00380</t>
-  </si>
-  <si>
-    <t>fnc02010</t>
-  </si>
-  <si>
-    <t>fnc00061</t>
-  </si>
-  <si>
-    <t>fnc01250</t>
-  </si>
-  <si>
-    <t>fnc00410</t>
-  </si>
-  <si>
-    <t>fnc03010</t>
-  </si>
-  <si>
-    <t>fnc00430</t>
+    <t>fnc01501</t>
+  </si>
+  <si>
+    <t>fnc00521</t>
+  </si>
+  <si>
+    <t>fnc00970</t>
+  </si>
+  <si>
+    <t>fnc03020</t>
+  </si>
+  <si>
+    <t>fnc00550</t>
+  </si>
+  <si>
+    <t>fnc00541</t>
+  </si>
+  <si>
+    <t>fnc01210</t>
+  </si>
+  <si>
+    <t>fnc00480</t>
   </si>
   <si>
     <t>fnc00920</t>
   </si>
   <si>
-    <t>fnc00540</t>
-  </si>
-  <si>
-    <t>fnc00190</t>
-  </si>
-  <si>
-    <t>fnc01232</t>
-  </si>
-  <si>
-    <t>fnc00460</t>
-  </si>
-  <si>
-    <t>fnc00521</t>
+    <t>fnc04981</t>
+  </si>
+  <si>
+    <t>fnc03060</t>
+  </si>
+  <si>
+    <t>fnc02020</t>
+  </si>
+  <si>
+    <t>fnc00790</t>
+  </si>
+  <si>
+    <t>fnc04980</t>
+  </si>
+  <si>
+    <t>fnc00052</t>
+  </si>
+  <si>
+    <t>fnc00910</t>
+  </si>
+  <si>
+    <t>fnc00710</t>
+  </si>
+  <si>
+    <t>fnc00730</t>
+  </si>
+  <si>
+    <t>fnc01200</t>
+  </si>
+  <si>
+    <t>fnc00520</t>
+  </si>
+  <si>
+    <t>fnc02024</t>
+  </si>
+  <si>
+    <t>fnc00350</t>
   </si>
   <si>
     <t>fnc01503</t>
   </si>
   <si>
-    <t>fnc00970</t>
-  </si>
-  <si>
-    <t>fnc03020</t>
-  </si>
-  <si>
-    <t>fnc00550</t>
-  </si>
-  <si>
-    <t>fnc00541</t>
-  </si>
-  <si>
-    <t>fnc01210</t>
-  </si>
-  <si>
-    <t>fnc00480</t>
-  </si>
-  <si>
-    <t>fnc03060</t>
-  </si>
-  <si>
-    <t>fnc00790</t>
-  </si>
-  <si>
-    <t>fnc00052</t>
-  </si>
-  <si>
-    <t>fnc00910</t>
-  </si>
-  <si>
-    <t>fnc00730</t>
-  </si>
-  <si>
-    <t>fnc01200</t>
-  </si>
-  <si>
-    <t>fnc00520</t>
-  </si>
-  <si>
-    <t>fnc02024</t>
-  </si>
-  <si>
     <t>fnc00470</t>
   </si>
   <si>
@@ -194,48 +215,48 @@
     <t>fnc00860</t>
   </si>
   <si>
+    <t>fnc00240</t>
+  </si>
+  <si>
     <t>fnc01100</t>
   </si>
   <si>
-    <t>fnc00240</t>
+    <t>fnc00561</t>
+  </si>
+  <si>
+    <t>fnc00564</t>
+  </si>
+  <si>
+    <t>fnc03070</t>
+  </si>
+  <si>
+    <t>fnc00270</t>
+  </si>
+  <si>
+    <t>fnc02060</t>
+  </si>
+  <si>
+    <t>fnc00625</t>
+  </si>
+  <si>
+    <t>fnc00360</t>
   </si>
   <si>
     <t>fnc00400</t>
   </si>
   <si>
-    <t>fnc00561</t>
-  </si>
-  <si>
-    <t>fnc00564</t>
-  </si>
-  <si>
-    <t>fnc03070</t>
+    <t>fnc03410</t>
   </si>
   <si>
     <t>fnc01110</t>
   </si>
   <si>
-    <t>fnc02060</t>
-  </si>
-  <si>
-    <t>fnc00625</t>
-  </si>
-  <si>
-    <t>fnc00350</t>
-  </si>
-  <si>
-    <t>fnc03410</t>
-  </si>
-  <si>
     <t>fnc00260</t>
   </si>
   <si>
     <t>fnc00220</t>
   </si>
   <si>
-    <t>fnc01501</t>
-  </si>
-  <si>
     <t>fnc01120</t>
   </si>
   <si>
@@ -254,21 +275,12 @@
     <t>fnc00130</t>
   </si>
   <si>
-    <t>fnc00270</t>
-  </si>
-  <si>
     <t>fnc00030</t>
   </si>
   <si>
     <t>fnc00362</t>
   </si>
   <si>
-    <t>fnc02020</t>
-  </si>
-  <si>
-    <t>fnc00360</t>
-  </si>
-  <si>
     <t>fnc00680</t>
   </si>
   <si>
@@ -287,36 +299,36 @@
     <t>fnc00740</t>
   </si>
   <si>
+    <t>fnc03430</t>
+  </si>
+  <si>
+    <t>fnc00780</t>
+  </si>
+  <si>
+    <t>fnc00230</t>
+  </si>
+  <si>
+    <t>fnc03440</t>
+  </si>
+  <si>
+    <t>fnc03018</t>
+  </si>
+  <si>
+    <t>fnc00900</t>
+  </si>
+  <si>
+    <t>fnc00543</t>
+  </si>
+  <si>
     <t>fnc01230</t>
   </si>
   <si>
-    <t>fnc03430</t>
-  </si>
-  <si>
-    <t>fnc00780</t>
-  </si>
-  <si>
-    <t>fnc00230</t>
-  </si>
-  <si>
-    <t>fnc03440</t>
-  </si>
-  <si>
-    <t>fnc03018</t>
-  </si>
-  <si>
-    <t>fnc00900</t>
-  </si>
-  <si>
-    <t>fnc00543</t>
-  </si>
-  <si>
-    <t>fnc00401</t>
-  </si>
-  <si>
     <t>fnc00020</t>
   </si>
   <si>
+    <t>fnc00074</t>
+  </si>
+  <si>
     <t>fnc04122</t>
   </si>
   <si>
@@ -332,147 +344,168 @@
     <t>Glycolysis / Gluconeogenesis</t>
   </si>
   <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
     <t>Pentose and glucuronate interconversions</t>
   </si>
   <si>
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
+    <t>Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Inositol phosphate metabolism</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine biosynthesis</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>Ribosome</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
   </si>
   <si>
     <t>One carbon pool by folate</t>
   </si>
   <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>DNA replication</t>
-  </si>
-  <si>
-    <t>Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Inositol phosphate metabolism</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine biosynthesis</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>ABC transporters</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Ribosome</t>
-  </si>
-  <si>
-    <t>Taurine and hypotaurine metabolism</t>
+    <t>beta-Lactam resistance</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Aminoacyl-tRNA biosynthesis</t>
+  </si>
+  <si>
+    <t>RNA polymerase</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>O-Antigen nucleotide sugar biosynthesis</t>
+  </si>
+  <si>
+    <t>2-Oxocarboxylic acid metabolism</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
   </si>
   <si>
     <t>Sulfur metabolism</t>
   </si>
   <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Nucleotide metabolism</t>
-  </si>
-  <si>
-    <t>Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
+    <t>Protein export</t>
+  </si>
+  <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
   </si>
   <si>
     <t>Cationic antimicrobial peptide (CAMP) resistance</t>
   </si>
   <si>
-    <t>Aminoacyl-tRNA biosynthesis</t>
-  </si>
-  <si>
-    <t>RNA polymerase</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>O-Antigen nucleotide sugar biosynthesis</t>
-  </si>
-  <si>
-    <t>2-Oxocarboxylic acid metabolism</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Protein export</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>Quorum sensing</t>
-  </si>
-  <si>
     <t>D-Amino acid metabolism</t>
   </si>
   <si>
@@ -482,48 +515,48 @@
     <t>Porphyrin metabolism</t>
   </si>
   <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
     <t>Metabolic pathways</t>
   </si>
   <si>
-    <t>Pyrimidine metabolism</t>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Phosphotransferase system (PTS)</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
   </si>
   <si>
     <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
   </si>
   <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Bacterial secretion system</t>
+    <t>Base excision repair</t>
   </si>
   <si>
     <t>Biosynthesis of secondary metabolites</t>
   </si>
   <si>
-    <t>Phosphotransferase system (PTS)</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
     <t>Glycine, serine and threonine metabolism</t>
   </si>
   <si>
     <t>Arginine biosynthesis</t>
   </si>
   <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
     <t>Microbial metabolism in diverse environments</t>
   </si>
   <si>
@@ -542,21 +575,12 @@
     <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
   </si>
   <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
     <t>Pentose phosphate pathway</t>
   </si>
   <si>
     <t>Benzoate degradation</t>
   </si>
   <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
     <t>Methane metabolism</t>
   </si>
   <si>
@@ -572,36 +596,36 @@
     <t>Riboflavin metabolism</t>
   </si>
   <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>Exopolysaccharide biosynthesis</t>
+  </si>
+  <si>
     <t>Biosynthesis of amino acids</t>
   </si>
   <si>
-    <t>Mismatch repair</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>Terpenoid backbone biosynthesis</t>
-  </si>
-  <si>
-    <t>Exopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Novobiocin biosynthesis</t>
-  </si>
-  <si>
     <t>Citrate cycle (TCA cycle)</t>
   </si>
   <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
     <t>Sulfur relay system</t>
   </si>
   <si>
@@ -611,18 +635,15 @@
     <t>HMPREF0946_RS03405;HMPREF0946_RS03850;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS05280;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS08275;HMPREF0946_RS09880;HMPREF0946_RS10540;HMPREF0946_RS03035</t>
   </si>
   <si>
+    <t>HMPREF0946_RS06435;HMPREF0946_RS06640;HMPREF0946_RS07805;HMPREF0946_RS08570;HMPREF0946_RS10865;HMPREF0946_RS10860</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04180;HMPREF0946_RS10125;HMPREF0946_RS02810</t>
   </si>
   <si>
     <t>HMPREF0946_RS09755</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06435;HMPREF0946_RS06640;HMPREF0946_RS07805;HMPREF0946_RS08570;HMPREF0946_RS01005;HMPREF0946_RS10865;HMPREF0946_RS10860</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS04460;HMPREF0946_RS05175;HMPREF0946_RS05595;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270;HMPREF0946_RS00220</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS04685;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
   </si>
   <si>
@@ -680,6 +701,9 @@
     <t>HMPREF0946_RS03850;HMPREF0946_RS04995;HMPREF0946_RS05180;HMPREF0946_RS06390;HMPREF0946_RS07720;HMPREF0946_RS09755;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS02555;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10540</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03590;HMPREF0946_RS04095;HMPREF0946_RS04460;HMPREF0946_RS04735;HMPREF0946_RS06425;HMPREF0946_RS09265;HMPREF0946_RS00220;HMPREF0946_RS03195;HMPREF0946_RS03190</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS04685</t>
   </si>
   <si>
@@ -689,9 +713,6 @@
     <t>HMPREF0946_RS03565;HMPREF0946_RS06425</t>
   </si>
   <si>
-    <t>HMPREF0946_RS05705;HMPREF0946_RS05910;HMPREF0946_RS01410</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03800;HMPREF0946_RS03975;HMPREF0946_RS05180;HMPREF0946_RS05630;HMPREF0946_RS05730;HMPREF0946_RS06835;HMPREF0946_RS02555</t>
   </si>
   <si>
@@ -704,12 +725,15 @@
     <t>HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS10960</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04460;HMPREF0946_RS05175;HMPREF0946_RS05595;HMPREF0946_RS07775;HMPREF0946_RS09265;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270;HMPREF0946_RS00220</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS03505;HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06980;HMPREF0946_RS06985;HMPREF0946_RS06990;HMPREF0946_RS01185</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS06390;HMPREF0946_RS09755</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03345;HMPREF0946_RS06980;HMPREF0946_RS07310</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03605;HMPREF0946_RS03730;HMPREF0946_RS07635;HMPREF0946_RS08440;HMPREF0946_RS09270;HMPREF0946_RS09375;HMPREF0946_RS09720;HMPREF0946_RS01215;HMPREF0946_RS00265;HMPREF0946_RS10675;HMPREF0946_RS03170;HMPREF0946_RS00465</t>
   </si>
   <si>
@@ -728,18 +752,33 @@
     <t>HMPREF0946_RS03370;HMPREF0946_RS07005;HMPREF0946_RS01610;HMPREF0946_RS00485</t>
   </si>
   <si>
+    <t>HMPREF0946_RS05705;HMPREF0946_RS05910;HMPREF0946_RS06065;HMPREF0946_RS01410</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS05175;HMPREF0946_RS10960;HMPREF0946_RS02670;HMPREF0946_RS02270</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS09470;HMPREF0946_RS09475;HMPREF0946_RS10895</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03590;HMPREF0946_RS05375;HMPREF0946_RS06915;HMPREF0946_RS06920;HMPREF0946_RS06980;HMPREF0946_RS07010;HMPREF0946_RS08295;HMPREF0946_RS02590;HMPREF0946_RS02585;HMPREF0946_RS02435;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01875;HMPREF0946_RS00110;HMPREF0946_RS00105;HMPREF0946_RS00100</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS05720;HMPREF0946_RS07220;HMPREF0946_RS09355;HMPREF0946_RS09975;HMPREF0946_RS09985;HMPREF0946_RS02670</t>
   </si>
   <si>
+    <t>HMPREF0946_RS07160;HMPREF0946_RS02270</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS06390;HMPREF0946_RS09880;HMPREF0946_RS00090;HMPREF0946_RS00085</t>
   </si>
   <si>
     <t>HMPREF0946_RS03565;HMPREF0946_RS04070;HMPREF0946_RS07010</t>
   </si>
   <si>
+    <t>HMPREF0946_RS04180;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS06495;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS03035</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS05115;HMPREF0946_RS06670;HMPREF0946_RS07140;HMPREF0946_RS09120;HMPREF0946_RS10040;HMPREF0946_RS10050</t>
   </si>
   <si>
@@ -752,6 +791,12 @@
     <t>HMPREF0946_RS05025;HMPREF0946_RS05375;HMPREF0946_RS05650;HMPREF0946_RS06175;HMPREF0946_RS07210;HMPREF0946_RS07570;HMPREF0946_RS07575;HMPREF0946_RS07580;HMPREF0946_RS07585;HMPREF0946_RS07590;HMPREF0946_RS08165;HMPREF0946_RS08180;HMPREF0946_RS08210;HMPREF0946_RS08215;HMPREF0946_RS08220;HMPREF0946_RS08225;HMPREF0946_RS08410;HMPREF0946_RS08415;HMPREF0946_RS08420;HMPREF0946_RS08425;HMPREF0946_RS08430;HMPREF0946_RS08605;HMPREF0946_RS08610;HMPREF0946_RS08615;HMPREF0946_RS08620;HMPREF0946_RS08625;HMPREF0946_RS09395;HMPREF0946_RS09400;HMPREF0946_RS09405;HMPREF0946_RS09410;HMPREF0946_RS09415;HMPREF0946_RS09670;HMPREF0946_RS09675;HMPREF0946_RS09680;HMPREF0946_RS09685;HMPREF0946_RS09690;HMPREF0946_RS02455;HMPREF0946_RS02450;HMPREF0946_RS02445;HMPREF0946_RS02440;HMPREF0946_RS10895;HMPREF0946_RS03065;HMPREF0946_RS03060;HMPREF0946_RS03055</t>
   </si>
   <si>
+    <t>HMPREF0946_RS06335;HMPREF0946_RS00570</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS03345;HMPREF0946_RS03505;HMPREF0946_RS06980;HMPREF0946_RS06985;HMPREF0946_RS06990;HMPREF0946_RS07310</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS03580;HMPREF0946_RS09060;HMPREF0946_RS09990;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01175;HMPREF0946_RS03320</t>
   </si>
   <si>
@@ -761,13 +806,10 @@
     <t>HMPREF0946_RS03775;HMPREF0946_RS05260;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS06930;HMPREF0946_RS07160;HMPREF0946_RS00340;HMPREF0946_RS10610;HMPREF0946_RS03170;HMPREF0946_RS00640;HMPREF0946_RS05545</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03370;HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS03565;HMPREF0946_RS03580;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03650;HMPREF0946_RS03720;HMPREF0946_RS03775;HMPREF0946_RS03800;HMPREF0946_RS03850;HMPREF0946_RS03975;HMPREF0946_RS04070;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04460;HMPREF0946_RS04465;HMPREF0946_RS04500;HMPREF0946_RS04505;HMPREF0946_RS04525;HMPREF0946_RS04575;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04720;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05025;HMPREF0946_RS05060;HMPREF0946_RS05115;HMPREF0946_RS05175;HMPREF0946_RS05180;HMPREF0946_RS05260;HMPREF0946_RS05280;HMPREF0946_RS05305;HMPREF0946_RS05325;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05630;HMPREF0946_RS05705;HMPREF0946_RS05720;HMPREF0946_RS05725;HMPREF0946_RS05730;HMPREF0946_RS05745;HMPREF0946_RS05880;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06175;HMPREF0946_RS06285;HMPREF0946_RS06335;HMPREF0946_RS06350;HMPREF0946_RS06380;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06435;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06595;HMPREF0946_RS06640;HMPREF0946_RS06670;HMPREF0946_RS06765;HMPREF0946_RS06775;HMPREF0946_RS06835;HMPREF0946_RS06930;HMPREF0946_RS07005;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07160;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07220;HMPREF0946_RS07255;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07720;HMPREF0946_RS07750;HMPREF0946_RS07770;HMPREF0946_RS07775;HMPREF0946_RS07805;HMPREF0946_RS07810;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08570;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09060;HMPREF0946_RS09120;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS09260;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09465;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS09880;HMPREF0946_RS09990;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10040;HMPREF0946_RS10050;HMPREF0946_RS10105;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10125;HMPREF0946_RS10130;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS02840;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02810;HMPREF0946_RS02670;HMPREF0946_RS02555;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02350;HMPREF0946_RS02270;HMPREF0946_RS02210;HMPREF0946_RS01975;HMPREF0946_RS01940;HMPREF0946_RS01915;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820;HMPREF0946_RS01630;HMPREF0946_RS01610;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01410;HMPREF0946_RS01360;HMPREF0946_RS01035;HMPREF0946_RS01005;HMPREF0946_RS01000;HMPREF0946_RS00990;HMPREF0946_RS00925;HMPREF0946_RS00340;HMPREF0946_RS00335;HMPREF0946_RS00310;HMPREF0946_RS00230;HMPREF0946_RS00220;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10865;HMPREF0946_RS10860;HMPREF0946_RS10640;HMPREF0946_RS10610;HMPREF0946_RS10540;HMPREF0946_RS03320;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS02985;HMPREF0946_RS00650;HMPREF0946_RS00640;HMPREF0946_RS00550;HMPREF0946_RS00485;HMPREF0946_RS05545</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS07255;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS01630;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01360;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04850;HMPREF0946_RS06335;HMPREF0946_RS07870;HMPREF0946_RS09260</t>
+    <t>HMPREF0946_RS03370;HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS03565;HMPREF0946_RS03580;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03650;HMPREF0946_RS03720;HMPREF0946_RS03775;HMPREF0946_RS03800;HMPREF0946_RS03850;HMPREF0946_RS03975;HMPREF0946_RS04070;HMPREF0946_RS04095;HMPREF0946_RS04105;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04460;HMPREF0946_RS04465;HMPREF0946_RS04500;HMPREF0946_RS04505;HMPREF0946_RS04525;HMPREF0946_RS04575;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04720;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04955;HMPREF0946_RS04960;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05025;HMPREF0946_RS05060;HMPREF0946_RS05115;HMPREF0946_RS05175;HMPREF0946_RS05180;HMPREF0946_RS05260;HMPREF0946_RS05280;HMPREF0946_RS05305;HMPREF0946_RS05325;HMPREF0946_RS05525;HMPREF0946_RS05535;HMPREF0946_RS05560;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05630;HMPREF0946_RS05705;HMPREF0946_RS05720;HMPREF0946_RS05725;HMPREF0946_RS05730;HMPREF0946_RS05745;HMPREF0946_RS05880;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06175;HMPREF0946_RS06285;HMPREF0946_RS06335;HMPREF0946_RS06350;HMPREF0946_RS06380;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06435;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06595;HMPREF0946_RS06640;HMPREF0946_RS06670;HMPREF0946_RS06765;HMPREF0946_RS06775;HMPREF0946_RS06835;HMPREF0946_RS06930;HMPREF0946_RS07005;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07160;HMPREF0946_RS07180;HMPREF0946_RS07185;HMPREF0946_RS07220;HMPREF0946_RS07255;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07720;HMPREF0946_RS07750;HMPREF0946_RS07770;HMPREF0946_RS07775;HMPREF0946_RS07805;HMPREF0946_RS07810;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08570;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09060;HMPREF0946_RS09120;HMPREF0946_RS09200;HMPREF0946_RS09205;HMPREF0946_RS09235;HMPREF0946_RS09240;HMPREF0946_RS09260;HMPREF0946_RS09265;HMPREF0946_RS09270;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09465;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09810;HMPREF0946_RS09815;HMPREF0946_RS09835;HMPREF0946_RS09880;HMPREF0946_RS09990;HMPREF0946_RS09995;HMPREF0946_RS10000;HMPREF0946_RS10005;HMPREF0946_RS10010;HMPREF0946_RS10015;HMPREF0946_RS10020;HMPREF0946_RS10025;HMPREF0946_RS10030;HMPREF0946_RS10035;HMPREF0946_RS10040;HMPREF0946_RS10050;HMPREF0946_RS10105;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10125;HMPREF0946_RS10130;HMPREF0946_RS10385;HMPREF0946_RS10390;HMPREF0946_RS02840;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02810;HMPREF0946_RS02670;HMPREF0946_RS02555;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02350;HMPREF0946_RS02270;HMPREF0946_RS02210;HMPREF0946_RS01975;HMPREF0946_RS01940;HMPREF0946_RS01915;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01855;HMPREF0946_RS01850;HMPREF0946_RS01825;HMPREF0946_RS01820;HMPREF0946_RS01630;HMPREF0946_RS01610;HMPREF0946_RS01590;HMPREF0946_RS01575;HMPREF0946_RS01565;HMPREF0946_RS01410;HMPREF0946_RS01360;HMPREF0946_RS01035;HMPREF0946_RS01000;HMPREF0946_RS00990;HMPREF0946_RS00925;HMPREF0946_RS00340;HMPREF0946_RS00335;HMPREF0946_RS00310;HMPREF0946_RS00230;HMPREF0946_RS00220;HMPREF0946_RS00090;HMPREF0946_RS00085;HMPREF0946_RS10865;HMPREF0946_RS10860;HMPREF0946_RS10640;HMPREF0946_RS10610;HMPREF0946_RS10540;HMPREF0946_RS03320;HMPREF0946_RS03305;HMPREF0946_RS03295;HMPREF0946_RS03290;HMPREF0946_RS03275;HMPREF0946_RS03270;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS02985;HMPREF0946_RS00650;HMPREF0946_RS00640;HMPREF0946_RS00550;HMPREF0946_RS00485;HMPREF0946_RS05545</t>
   </si>
   <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03555;HMPREF0946_RS01975</t>
@@ -779,7 +821,7 @@
     <t>HMPREF0946_RS06980;HMPREF0946_RS08200;HMPREF0946_RS00195;HMPREF0946_RS00160;HMPREF0946_RS00150;HMPREF0946_RS10895</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03775;HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04500;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05235;HMPREF0946_RS05305;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06670;HMPREF0946_RS07140;HMPREF0946_RS07185;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07775;HMPREF0946_RS07810;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09120;HMPREF0946_RS09260;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02395;HMPREF0946_RS02270;HMPREF0946_RS01185;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00650;HMPREF0946_RS00550</t>
+    <t>HMPREF0946_RS04500;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06415;HMPREF0946_RS06575;HMPREF0946_RS07775;HMPREF0946_RS10120;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02270</t>
   </si>
   <si>
     <t>HMPREF0946_RS05280;HMPREF0946_RS08660;HMPREF0946_RS08670;HMPREF0946_RS08675;HMPREF0946_RS09280;HMPREF0946_RS09520;HMPREF0946_RS01020;HMPREF0946_RS00685;HMPREF0946_RS00620</t>
@@ -788,21 +830,24 @@
     <t>HMPREF0946_RS03405</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06335;HMPREF0946_RS07870;HMPREF0946_RS00570</t>
+    <t>HMPREF0946_RS05745;HMPREF0946_RS06335</t>
+  </si>
+  <si>
+    <t>HMPREF0946_RS04850;HMPREF0946_RS06335;HMPREF0946_RS09260</t>
   </si>
   <si>
     <t>HMPREF0946_RS05170;HMPREF0946_RS06780</t>
   </si>
   <si>
+    <t>HMPREF0946_RS03405;HMPREF0946_RS03590;HMPREF0946_RS03615;HMPREF0946_RS03775;HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04290;HMPREF0946_RS04500;HMPREF0946_RS04525;HMPREF0946_RS04650;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04745;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS04985;HMPREF0946_RS04995;HMPREF0946_RS05005;HMPREF0946_RS05235;HMPREF0946_RS05305;HMPREF0946_RS05595;HMPREF0946_RS05600;HMPREF0946_RS05605;HMPREF0946_RS05610;HMPREF0946_RS05620;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS06670;HMPREF0946_RS07010;HMPREF0946_RS07140;HMPREF0946_RS07185;HMPREF0946_RS07260;HMPREF0946_RS07265;HMPREF0946_RS07270;HMPREF0946_RS07275;HMPREF0946_RS07705;HMPREF0946_RS07775;HMPREF0946_RS07810;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09120;HMPREF0946_RS09260;HMPREF0946_RS09340;HMPREF0946_RS09355;HMPREF0946_RS09495;HMPREF0946_RS09500;HMPREF0946_RS09755;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02395;HMPREF0946_RS02270;HMPREF0946_RS01185;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00650;HMPREF0946_RS00550</t>
+  </si>
+  <si>
     <t>HMPREF0946_RS04820;HMPREF0946_RS05305;HMPREF0946_RS06120;HMPREF0946_RS10960;HMPREF0946_RS10120;HMPREF0946_RS02840</t>
   </si>
   <si>
     <t>HMPREF0946_RS03565;HMPREF0946_RS06335;HMPREF0946_RS07010</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03720;HMPREF0946_RS06350;HMPREF0946_RS06980;HMPREF0946_RS01185</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03405;HMPREF0946_RS03565;HMPREF0946_RS03590;HMPREF0946_RS03650;HMPREF0946_RS03850;HMPREF0946_RS04095;HMPREF0946_RS04180;HMPREF0946_RS04685;HMPREF0946_RS04735;HMPREF0946_RS04740;HMPREF0946_RS04820;HMPREF0946_RS05305;HMPREF0946_RS05705;HMPREF0946_RS05745;HMPREF0946_RS05750;HMPREF0946_RS05910;HMPREF0946_RS06390;HMPREF0946_RS06415;HMPREF0946_RS06425;HMPREF0946_RS06495;HMPREF0946_RS06765;HMPREF0946_RS07010;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS08675;HMPREF0946_RS09265;HMPREF0946_RS10960;HMPREF0946_RS09880;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10120;HMPREF0946_RS10130;HMPREF0946_RS02810;HMPREF0946_RS02500;HMPREF0946_RS02495;HMPREF0946_RS02490;HMPREF0946_RS02480;HMPREF0946_RS02475;HMPREF0946_RS01900;HMPREF0946_RS01890;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01410;HMPREF0946_RS00335;HMPREF0946_RS00220;HMPREF0946_RS10540;HMPREF0946_RS03195;HMPREF0946_RS03190;HMPREF0946_RS03170;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
   </si>
   <si>
@@ -821,21 +866,12 @@
     <t>HMPREF0946_RS09495;HMPREF0946_RS09500</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04500;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06415;HMPREF0946_RS06575;HMPREF0946_RS07775;HMPREF0946_RS07870;HMPREF0946_RS10120;HMPREF0946_RS02835;HMPREF0946_RS02830;HMPREF0946_RS02270</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03850;HMPREF0946_RS04180;HMPREF0946_RS04740;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS10110;HMPREF0946_RS10115;HMPREF0946_RS10540;HMPREF0946_RS00550</t>
   </si>
   <si>
     <t>HMPREF0946_RS03590;HMPREF0946_RS05745;HMPREF0946_RS02500;HMPREF0946_RS02480;HMPREF0946_RS02475</t>
   </si>
   <si>
-    <t>HMPREF0946_RS03590;HMPREF0946_RS05375;HMPREF0946_RS06915;HMPREF0946_RS06920;HMPREF0946_RS06980;HMPREF0946_RS07010;HMPREF0946_RS08295;HMPREF0946_RS02435;HMPREF0946_RS02430;HMPREF0946_RS01885;HMPREF0946_RS01880;HMPREF0946_RS01875;HMPREF0946_RS00110;HMPREF0946_RS00105;HMPREF0946_RS00100</t>
-  </si>
-  <si>
-    <t>HMPREF0946_RS05745;HMPREF0946_RS06335;HMPREF0946_RS07870</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS04740;HMPREF0946_RS06425;HMPREF0946_RS08275;HMPREF0946_RS10960;HMPREF0946_RS10120</t>
   </si>
   <si>
@@ -854,9 +890,6 @@
     <t>HMPREF0946_RS04290;HMPREF0946_RS04505;HMPREF0946_RS05060;HMPREF0946_RS09340;HMPREF0946_RS09355</t>
   </si>
   <si>
-    <t>HMPREF0946_RS04180;HMPREF0946_RS04500;HMPREF0946_RS04650;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS05305;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS07010;HMPREF0946_RS07775;HMPREF0946_RS07870;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09260;HMPREF0946_RS10960;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02270;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
-  </si>
-  <si>
     <t>HMPREF0946_RS03715;HMPREF0946_RS03955;HMPREF0946_RS05290;HMPREF0946_RS05960;HMPREF0946_RS07165;HMPREF0946_RS08515;HMPREF0946_RS01845;HMPREF0946_RS01230;HMPREF0946_RS01205;HMPREF0946_RS02915</t>
   </si>
   <si>
@@ -878,7 +911,7 @@
     <t>HMPREF0946_RS09795</t>
   </si>
   <si>
-    <t>HMPREF0946_RS06335;HMPREF0946_RS07870</t>
+    <t>HMPREF0946_RS04180;HMPREF0946_RS04500;HMPREF0946_RS04650;HMPREF0946_RS04820;HMPREF0946_RS04850;HMPREF0946_RS05305;HMPREF0946_RS05725;HMPREF0946_RS05910;HMPREF0946_RS06120;HMPREF0946_RS06335;HMPREF0946_RS06495;HMPREF0946_RS06575;HMPREF0946_RS07010;HMPREF0946_RS07775;HMPREF0946_RS08275;HMPREF0946_RS08465;HMPREF0946_RS08470;HMPREF0946_RS09260;HMPREF0946_RS10960;HMPREF0946_RS10105;HMPREF0946_RS10120;HMPREF0946_RS02840;HMPREF0946_RS02270;HMPREF0946_RS03035;HMPREF0946_RS00550</t>
   </si>
   <si>
     <t/>
@@ -967,25 +1000,25 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
         <v>7.400079166517081E-4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06808072833195715</v>
+        <v>0.07030075208191226</v>
       </c>
       <c r="F2" t="n">
         <v>7.400079166517081E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.023186914721753518</v>
+        <v>0.018130193957966848</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -996,25 +1029,25 @@
         <v>12.0</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D3" t="n">
         <v>0.002831092836335455</v>
       </c>
       <c r="E3" t="n">
-        <v>0.13023027047143093</v>
+        <v>0.13447690972593412</v>
       </c>
       <c r="F3" t="n">
         <v>0.022719353810200186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15254423272562984</v>
+        <v>0.14843311155997455</v>
       </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -1022,28 +1055,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D4" t="n">
-        <v>0.010632716258575094</v>
+        <v>0.0066667698044282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.26687542546977355</v>
+        <v>0.21111437714022632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5491613181005467</v>
+        <v>0.1430472103352835</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.43808208165180573</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -1051,28 +1084,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.011898906056730336</v>
+        <v>0.010632716258575094</v>
       </c>
       <c r="E5" t="n">
-        <v>0.26687542546977355</v>
+        <v>0.2260792150778764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.011898906056730336</v>
+        <v>0.5491613181005467</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11184971693326516</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6">
@@ -1080,28 +1113,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01473878603093798</v>
+        <v>0.011898906056730336</v>
       </c>
       <c r="E6" t="n">
-        <v>0.26687542546977355</v>
+        <v>0.2260792150778764</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07586422888948557</v>
+        <v>0.011898906056730336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29713489648381847</v>
+        <v>0.10856066001967685</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
@@ -1109,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>0.019282761568330968</v>
+        <v>0.020305738894439294</v>
       </c>
       <c r="E7" t="n">
-        <v>0.26687542546977355</v>
+        <v>0.32150753249528885</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2341792638251829</v>
+        <v>0.4021975793388194</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6670560848353695</v>
+        <v>0.8568557125044414</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8">
@@ -1138,28 +1171,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.020305738894439294</v>
+        <v>0.02675494889249519</v>
       </c>
       <c r="E8" t="n">
-        <v>0.26687542546977355</v>
+        <v>0.35543846868128487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4021975793388194</v>
+        <v>0.932840134659522</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8592402831329323</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -1167,28 +1200,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02675494889249519</v>
+        <v>0.02993166052052925</v>
       </c>
       <c r="E9" t="n">
-        <v>0.30596808532096564</v>
+        <v>0.35543846868128487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.932840134659522</v>
+        <v>0.02993166052052925</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.18333142068824165</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10">
@@ -1196,28 +1229,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02993166052052925</v>
+        <v>0.04369569239172806</v>
       </c>
       <c r="E10" t="n">
-        <v>0.30596808532096564</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02993166052052925</v>
+        <v>0.05316023593996168</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1875717392619833</v>
+        <v>0.22650883139635847</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1225,28 +1258,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04369569239172806</v>
+        <v>0.046576272526157966</v>
       </c>
       <c r="E11" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05316023593996168</v>
+        <v>0.9457336402592285</v>
       </c>
       <c r="G11" t="n">
-        <v>0.23795534182649514</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1254,28 +1287,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.046576272526157966</v>
+        <v>0.047420572299715684</v>
       </c>
       <c r="E12" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9457336402592285</v>
+        <v>0.5966830185482487</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1283,28 +1316,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" t="n">
-        <v>0.047420572299715684</v>
+        <v>0.05454257759160853</v>
       </c>
       <c r="E13" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5966830185482487</v>
+        <v>0.229792913103604</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>0.6434201566900911</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
@@ -1312,28 +1345,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05454257759160853</v>
+        <v>0.06703621921724187</v>
       </c>
       <c r="E14" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F14" t="n">
-        <v>0.229792913103604</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6670560848353695</v>
+        <v>1.0</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15">
@@ -1341,28 +1374,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06703621921724187</v>
+        <v>0.06800853382366627</v>
       </c>
       <c r="E15" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.0323088583101958</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.18625106555289345</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
@@ -1370,28 +1403,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06800853382366627</v>
+        <v>0.0734034405518539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0323088583101958</v>
+        <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.18981454257240035</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17">
@@ -1399,16 +1432,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0734034405518539</v>
+        <v>0.07632368015659023</v>
       </c>
       <c r="E17" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -1417,10 +1450,10 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
@@ -1428,28 +1461,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07632368015659023</v>
+        <v>0.07676734228797563</v>
       </c>
       <c r="E18" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.09598913057762279</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.3484049924669272</v>
       </c>
       <c r="H18" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
@@ -1457,28 +1490,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07676734228797563</v>
+        <v>0.07687550341073705</v>
       </c>
       <c r="E19" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09598913057762279</v>
+        <v>0.6221023625431819</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3470376259344824</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
@@ -1486,28 +1519,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07687550341073705</v>
+        <v>0.08425955203212131</v>
       </c>
       <c r="E20" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6221023625431819</v>
+        <v>0.8340902662558358</v>
       </c>
       <c r="G20" t="n">
         <v>1.0</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
@@ -1515,28 +1548,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08425955203212131</v>
+        <v>0.08485287286934204</v>
       </c>
       <c r="E21" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8340902662558358</v>
+        <v>0.24736282441837038</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>0.6733765775833416</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
@@ -1544,28 +1577,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08485287286934204</v>
+        <v>0.0864251525218893</v>
       </c>
       <c r="E22" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.24736282441837038</v>
+        <v>0.9672321904960044</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6838854557449063</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
@@ -1573,28 +1606,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0</v>
+        <v>58.0</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0864251525218893</v>
+        <v>0.08795068978181483</v>
       </c>
       <c r="E23" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9672321904960044</v>
+        <v>0.04346852067468489</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>0.20245842750806722</v>
       </c>
       <c r="H23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -1602,28 +1635,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>58.0</v>
+        <v>7.0</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08795068978181483</v>
+        <v>0.09072003753000678</v>
       </c>
       <c r="E24" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04346852067468489</v>
+        <v>0.3690662930930061</v>
       </c>
       <c r="G24" t="n">
-        <v>0.21505478649580945</v>
+        <v>0.8568557125044414</v>
       </c>
       <c r="H24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -1631,28 +1664,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09072003753000678</v>
+        <v>0.0932774173966283</v>
       </c>
       <c r="E25" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.36922311052832035</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3690662930930061</v>
+        <v>0.00437580176872236</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8592402831329323</v>
+        <v>0.07147142888913188</v>
       </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1660,28 +1693,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0932774173966283</v>
+        <v>0.09918345298293851</v>
       </c>
       <c r="E26" t="n">
-        <v>0.34326089601959214</v>
+        <v>0.37689712133516634</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00437580176872236</v>
+        <v>0.12501625122095467</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08226507325198038</v>
+        <v>0.4211984878425541</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -1692,13 +1725,13 @@
         <v>2.0</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D27" t="n">
         <v>0.10735368202757448</v>
       </c>
       <c r="E27" t="n">
-        <v>0.379866874866802</v>
+        <v>0.39225383817767595</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -1707,10 +1740,10 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -1721,25 +1754,25 @@
         <v>6.0</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D28" t="n">
         <v>0.11649828012719123</v>
       </c>
       <c r="E28" t="n">
-        <v>0.39695710265561457</v>
+        <v>0.40990135600308025</v>
       </c>
       <c r="F28" t="n">
         <v>0.4833204574621137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.946793438652254</v>
+        <v>0.9475992203021708</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
@@ -1750,13 +1783,13 @@
         <v>2.0</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D29" t="n">
         <v>0.1407093434703812</v>
       </c>
       <c r="E29" t="n">
-        <v>0.45627148316092975</v>
+        <v>0.47740670106022187</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -1765,10 +1798,10 @@
         <v>1.0</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
@@ -1776,28 +1809,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D30" t="n">
-        <v>0.14382470664855393</v>
+        <v>0.14924556660836333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.45627148316092975</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
+        <v>0.3347401194939655</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>0.8001105295221613</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -1805,28 +1838,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D31" t="n">
-        <v>0.14924556660836333</v>
+        <v>0.1609783466297131</v>
       </c>
       <c r="E31" t="n">
-        <v>0.45768640426564755</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3347401194939655</v>
+        <v>0.12471536516116384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.806809518780327</v>
+        <v>0.4211984878425541</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
@@ -1834,28 +1867,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1609783466297131</v>
+        <v>0.17000704463106225</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F32" t="n">
-        <v>0.12471536516116384</v>
+        <v>0.010137584468422054</v>
       </c>
       <c r="G32" t="n">
-        <v>0.43186924474778415</v>
+        <v>0.10856066001967685</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -1863,28 +1896,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" t="n">
-        <v>0.17000704463106225</v>
+        <v>0.1796150112943338</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F33" t="n">
-        <v>0.010137584468422054</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.10588143778129702</v>
+        <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -1892,28 +1925,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1796150112943338</v>
+        <v>0.18020545230910034</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>0.2792776481332441</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>0.6910424487268594</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35">
@@ -1921,28 +1954,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" t="n">
-        <v>0.18627036871859234</v>
+        <v>0.1829745073320991</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3877387549995039</v>
+        <v>0.5791500069055673</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8592402831329323</v>
+        <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36">
@@ -1953,25 +1986,25 @@
         <v>3.0</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1888727764801728</v>
+        <v>0.18627036871859234</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2651073033074077</v>
+        <v>0.3877387549995039</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6885498454636597</v>
+        <v>0.8568557125044414</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -1982,25 +2015,25 @@
         <v>12.0</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D37" t="n">
         <v>0.19210152046710213</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F37" t="n">
         <v>0.0017028312604282477</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04001653462006382</v>
+        <v>0.033375492704393654</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -2011,25 +2044,25 @@
         <v>1.0</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D38" t="n">
         <v>0.19303135787804782</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F38" t="n">
         <v>0.19303135787804782</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5853208916302095</v>
+        <v>0.556384502119079</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
@@ -2040,25 +2073,25 @@
         <v>7.0</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D39" t="n">
         <v>0.2018464032871611</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F39" t="n">
         <v>0.45373507361342735</v>
       </c>
       <c r="G39" t="n">
-        <v>0.946793438652254</v>
+        <v>0.9460858981726784</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I39" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40">
@@ -2069,13 +2102,13 @@
         <v>4.0</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D40" t="n">
         <v>0.20294672615832296</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F40" t="n">
         <v>0.8942872013535449</v>
@@ -2084,10 +2117,10 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I40" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
@@ -2098,13 +2131,13 @@
         <v>2.0</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D41" t="n">
         <v>0.2052539425164331</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4720840677877961</v>
+        <v>0.48747811347652864</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -2113,10 +2146,10 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I41" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42">
@@ -2127,13 +2160,13 @@
         <v>4.0</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D42" t="n">
         <v>0.21285739385834804</v>
       </c>
       <c r="E42" t="n">
-        <v>0.47763122524312246</v>
+        <v>0.4932061565010503</v>
       </c>
       <c r="F42" t="n">
         <v>0.999789084393994</v>
@@ -2142,10 +2175,10 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
@@ -2153,28 +2186,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2470992547653709</v>
+        <v>0.2363172775652497</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5412650342479554</v>
+        <v>0.5230218370408137</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8885460435809021</v>
+        <v>0.9966789876351039</v>
       </c>
       <c r="G43" t="n">
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44">
@@ -2182,28 +2215,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2532526789881835</v>
+        <v>0.24613275419331512</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5418429410909972</v>
+        <v>0.5230218370408137</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9995822146636191</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
         <v>1.0</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45">
@@ -2211,28 +2244,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D45" t="n">
-        <v>0.26468569108677475</v>
+        <v>0.2470992547653709</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5534337177268926</v>
+        <v>0.5230218370408137</v>
       </c>
       <c r="F45" t="n">
-        <v>0.264719948674579</v>
+        <v>0.8885460435809021</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6885498454636597</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
@@ -2240,28 +2273,28 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2740935933784399</v>
+        <v>0.24980111361156326</v>
       </c>
       <c r="E46" t="n">
-        <v>0.560369124240366</v>
+        <v>0.5230218370408137</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7089895042962846</v>
+        <v>0.01218538020629026</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>0.10856066001967685</v>
       </c>
       <c r="H46" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I46" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
@@ -2272,25 +2305,25 @@
         <v>6.0</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28778599938222915</v>
+        <v>0.2532526789881835</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5755719987644583</v>
+        <v>0.5230218370408137</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5468234342343653</v>
+        <v>0.9995822146636191</v>
       </c>
       <c r="G47" t="n">
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -2298,28 +2331,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>32.0</v>
+        <v>2.0</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D48" t="n">
-        <v>0.30403410124015334</v>
+        <v>0.2627411644226903</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5951305811509384</v>
+        <v>0.5238570969425751</v>
       </c>
       <c r="F48" t="n">
-        <v>0.13323625635835895</v>
+        <v>1.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.43186924474778415</v>
+        <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I48" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
@@ -2327,28 +2360,28 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D49" t="n">
-        <v>0.31155906690637125</v>
+        <v>0.26468569108677475</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5971548782372116</v>
+        <v>0.5238570969425751</v>
       </c>
       <c r="F49" t="n">
-        <v>0.006018371703312542</v>
+        <v>0.264719948674579</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09428782335189648</v>
+        <v>0.6910424487268594</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50">
@@ -2356,28 +2389,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>44.0</v>
+        <v>3.0</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32871342241425994</v>
+        <v>0.2740935933784399</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6171762216757534</v>
+        <v>0.531405946345955</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06649558278821593</v>
+        <v>0.7089895042962846</v>
       </c>
       <c r="G50" t="n">
-        <v>0.28411749009510445</v>
+        <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I50" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51">
@@ -2385,28 +2418,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3796953917236747</v>
+        <v>0.2834884171433726</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6893742112846146</v>
+        <v>0.5360719596335641</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8131702906348746</v>
+        <v>0.5272182975863582</v>
       </c>
       <c r="G51" t="n">
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I51" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52">
@@ -2414,28 +2447,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D52" t="n">
-        <v>0.38553566843078</v>
+        <v>0.28778599938222915</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6893742112846146</v>
+        <v>0.5360719596335641</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0</v>
+        <v>0.5468234342343653</v>
       </c>
       <c r="G52" t="n">
         <v>1.0</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53">
@@ -2443,28 +2476,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3947261027130865</v>
+        <v>0.30403410124015334</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6893742112846146</v>
+        <v>0.5554469157272032</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7101455922620129</v>
+        <v>0.13323625635835895</v>
       </c>
       <c r="G53" t="n">
-        <v>1.0</v>
+        <v>0.4211984878425541</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I53" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54">
@@ -2472,28 +2505,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>210.0</v>
+        <v>14.0</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D54" t="n">
-        <v>0.397139491283528</v>
+        <v>0.31155906690637125</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6893742112846146</v>
+        <v>0.5584549312472692</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03749299308611857</v>
+        <v>0.006018371703312542</v>
       </c>
       <c r="G54" t="n">
-        <v>0.20389230455865806</v>
+        <v>0.08425720384637558</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I54" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55">
@@ -2501,28 +2534,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4104771936036522</v>
+        <v>0.32871342241425994</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6993315150284445</v>
+        <v>0.5782921320250869</v>
       </c>
       <c r="F55" t="n">
-        <v>0.008693058329069744</v>
+        <v>0.06649558278821593</v>
       </c>
       <c r="G55" t="n">
-        <v>0.10214343536656949</v>
+        <v>0.2715236297185484</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56">
@@ -2530,28 +2563,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4261272609445306</v>
+        <v>0.35102221463236716</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7127946910344874</v>
+        <v>0.6063110980013615</v>
       </c>
       <c r="F56" t="n">
-        <v>0.940493188164031</v>
+        <v>1.0</v>
       </c>
       <c r="G56" t="n">
         <v>1.0</v>
       </c>
       <c r="H56" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I56" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
@@ -2559,28 +2592,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D57" t="n">
-        <v>0.44409959583855485</v>
+        <v>0.36736779009496556</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7211787193941008</v>
+        <v>0.6232132153396737</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0</v>
+        <v>0.04544985107323959</v>
       </c>
       <c r="G57" t="n">
-        <v>1.0</v>
+        <v>0.20245842750806722</v>
       </c>
       <c r="H57" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58">
@@ -2588,28 +2621,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4469968361470944</v>
+        <v>0.3796953917236747</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7211787193941008</v>
+        <v>0.6314808362228294</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4780124103231702</v>
+        <v>0.8131702906348746</v>
       </c>
       <c r="G58" t="n">
-        <v>0.946793438652254</v>
+        <v>1.0</v>
       </c>
       <c r="H58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I58" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59">
@@ -2617,28 +2650,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4546561491832375</v>
+        <v>0.38553566843078</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7211787193941008</v>
+        <v>0.6314808362228294</v>
       </c>
       <c r="F59" t="n">
-        <v>0.38485835936987245</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8592402831329323</v>
+        <v>1.0</v>
       </c>
       <c r="H59" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I59" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60">
@@ -2646,28 +2679,28 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>69.0</v>
+        <v>12.0</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D60" t="n">
-        <v>0.48040750017507217</v>
+        <v>0.3947261027130865</v>
       </c>
       <c r="E60" t="n">
-        <v>0.729166345498492</v>
+        <v>0.6355759280973426</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09582504372125003</v>
+        <v>0.7101455922620129</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3470376259344824</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I60" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61">
@@ -2675,28 +2708,28 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.48073423855758124</v>
+        <v>0.4104771936036522</v>
       </c>
       <c r="E61" t="n">
-        <v>0.729166345498492</v>
+        <v>0.6499222232057826</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5945900110555358</v>
+        <v>0.008693058329069744</v>
       </c>
       <c r="G61" t="n">
-        <v>1.0</v>
+        <v>0.10648996453110436</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I61" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62">
@@ -2704,28 +2737,28 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>1.0</v>
+        <v>208.0</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.48346898995008714</v>
+        <v>0.4199382483048927</v>
       </c>
       <c r="E62" t="n">
-        <v>0.729166345498492</v>
+        <v>0.6540021899830296</v>
       </c>
       <c r="F62" t="n">
-        <v>0.48346898995008714</v>
+        <v>0.03639284342161683</v>
       </c>
       <c r="G62" t="n">
-        <v>0.946793438652254</v>
+        <v>0.19739234990053123</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I62" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63">
@@ -2736,13 +2769,13 @@
         <v>3.0</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D63" t="n">
-        <v>0.500997439346776</v>
+        <v>0.44409959583855485</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7434155551597321</v>
+        <v>0.6740428481583169</v>
       </c>
       <c r="F63" t="n">
         <v>1.0</v>
@@ -2751,10 +2784,10 @@
         <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I63" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
@@ -2762,28 +2795,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D64" t="n">
-        <v>0.550133714072475</v>
+        <v>0.4469968361470944</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8033698681693285</v>
+        <v>0.6740428481583169</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.4780124103231702</v>
       </c>
       <c r="G64" t="n">
-        <v>1.0</v>
+        <v>0.9475992203021708</v>
       </c>
       <c r="H64" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I64" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
@@ -2794,25 +2827,25 @@
         <v>6.0</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D65" t="n">
-        <v>0.574670548688758</v>
+        <v>0.4546561491832375</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8246684416360075</v>
+        <v>0.6747777952911677</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8126655157580319</v>
+        <v>0.38485835936987245</v>
       </c>
       <c r="G65" t="n">
-        <v>1.0</v>
+        <v>0.8568557125044414</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I65" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66">
@@ -2820,28 +2853,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5839678482507256</v>
+        <v>0.4799037272853671</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8246684416360075</v>
+        <v>0.6747777952911677</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6952490549765187</v>
+        <v>0.018751736105564066</v>
       </c>
       <c r="G66" t="n">
-        <v>1.0</v>
+        <v>0.13126215273894845</v>
       </c>
       <c r="H66" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I66" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67">
@@ -2849,28 +2882,28 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5916099689997445</v>
+        <v>0.48073423855758124</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8246684416360075</v>
+        <v>0.6747777952911677</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9843656616517973</v>
+        <v>0.5945900110555358</v>
       </c>
       <c r="G67" t="n">
         <v>1.0</v>
       </c>
       <c r="H67" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68">
@@ -2878,28 +2911,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>52.0</v>
+        <v>1.0</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6420586345265236</v>
+        <v>0.48346898995008714</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8816327518871666</v>
+        <v>0.6747777952911677</v>
       </c>
       <c r="F68" t="n">
-        <v>0.039043207255913245</v>
+        <v>0.48346898995008714</v>
       </c>
       <c r="G68" t="n">
-        <v>0.20389230455865806</v>
+        <v>0.9475992203021708</v>
       </c>
       <c r="H68" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69">
@@ -2907,28 +2940,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>48.0</v>
+        <v>2.0</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6932728839470319</v>
+        <v>0.4883028675314832</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.6747777952911677</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07465452995730032</v>
+        <v>1.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.29713489648381847</v>
+        <v>1.0</v>
       </c>
       <c r="H69" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
@@ -2936,28 +2969,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7041491783728393</v>
+        <v>0.49010176710621656</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.6747777952911677</v>
       </c>
       <c r="F70" t="n">
-        <v>0.40192821392463657</v>
+        <v>0.9460180319657302</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8592402831329323</v>
+        <v>1.0</v>
       </c>
       <c r="H70" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I70" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
@@ -2965,16 +2998,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7045812889815448</v>
+        <v>0.550133714072475</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.7466100405269305</v>
       </c>
       <c r="F71" t="n">
         <v>1.0</v>
@@ -2983,10 +3016,10 @@
         <v>1.0</v>
       </c>
       <c r="H71" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I71" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72">
@@ -2994,28 +3027,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>3.0</v>
+        <v>69.0</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7185099923508103</v>
+        <v>0.5726315669586172</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.7582458628532224</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.07425979412251543</v>
       </c>
       <c r="G72" t="n">
-        <v>1.0</v>
+        <v>0.2813901513775166</v>
       </c>
       <c r="H72" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="I72" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73">
@@ -3023,28 +3056,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7283294633383259</v>
+        <v>0.574670548688758</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.7582458628532224</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0</v>
+        <v>0.8126655157580319</v>
       </c>
       <c r="G73" t="n">
         <v>1.0</v>
       </c>
       <c r="H73" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I73" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74">
@@ -3052,28 +3085,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7436280471602713</v>
+        <v>0.5839678482507256</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.7599581586824511</v>
       </c>
       <c r="F74" t="n">
-        <v>0.015830502294508216</v>
+        <v>0.6952490549765187</v>
       </c>
       <c r="G74" t="n">
-        <v>0.12400560130698102</v>
+        <v>1.0</v>
       </c>
       <c r="H74" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I74" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75">
@@ -3081,28 +3114,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7445825364146463</v>
+        <v>0.6420586345265236</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9256972074344252</v>
+        <v>0.82426446324351</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1751642744627374</v>
+        <v>0.039043207255913245</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5488480599832439</v>
+        <v>0.19739234990053123</v>
       </c>
       <c r="H75" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I75" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76">
@@ -3110,28 +3143,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>5.0</v>
+        <v>48.0</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7747259046855157</v>
+        <v>0.6932728839470319</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9385073382601136</v>
+        <v>0.869288603288919</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7291131047497983</v>
+        <v>0.07465452995730032</v>
       </c>
       <c r="G76" t="n">
-        <v>1.0</v>
+        <v>0.2813901513775166</v>
       </c>
       <c r="H76" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I76" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
@@ -3139,28 +3172,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7752886707366156</v>
+        <v>0.7041491783728393</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9385073382601136</v>
+        <v>0.869288603288919</v>
       </c>
       <c r="F77" t="n">
-        <v>0.008184662664948427</v>
+        <v>0.40192821392463657</v>
       </c>
       <c r="G77" t="n">
-        <v>0.10214343536656949</v>
+        <v>0.8568557125044414</v>
       </c>
       <c r="H77" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I77" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78">
@@ -3171,13 +3204,13 @@
         <v>3.0</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7940749001032961</v>
+        <v>0.7045812889815448</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.869288603288919</v>
       </c>
       <c r="F78" t="n">
         <v>1.0</v>
@@ -3186,10 +3219,10 @@
         <v>1.0</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I78" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79">
@@ -3197,28 +3230,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8041585934978914</v>
+        <v>0.7185099923508103</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.8751083240170124</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9351561795204881</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
         <v>1.0</v>
       </c>
       <c r="H79" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I79" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80">
@@ -3229,13 +3262,13 @@
         <v>2.0</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8094249272863341</v>
+        <v>0.7283294633383259</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.8758392280650754</v>
       </c>
       <c r="F80" t="n">
         <v>1.0</v>
@@ -3244,10 +3277,10 @@
         <v>1.0</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I80" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81">
@@ -3255,28 +3288,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8384920876031096</v>
+        <v>0.7445825364146463</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.8841917619923925</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2820581423374936</v>
+        <v>0.1751642744627374</v>
       </c>
       <c r="G81" t="n">
-        <v>0.6977227731506421</v>
+        <v>0.5201848150711595</v>
       </c>
       <c r="H81" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82">
@@ -3284,28 +3317,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8449445581054986</v>
+        <v>0.7747259046855157</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.9086291474706667</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7089554405621605</v>
+        <v>0.7291131047497983</v>
       </c>
       <c r="G82" t="n">
         <v>1.0</v>
       </c>
       <c r="H82" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I82" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83">
@@ -3313,28 +3346,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>64.0</v>
+        <v>5.0</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D83" t="n">
-        <v>0.845879719551208</v>
+        <v>0.8041585934978914</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.9258922340529223</v>
       </c>
       <c r="F83" t="n">
-        <v>0.13095352815374928</v>
+        <v>0.9351561795204881</v>
       </c>
       <c r="G83" t="n">
-        <v>0.43186924474778415</v>
+        <v>1.0</v>
       </c>
       <c r="H83" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="I83" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84">
@@ -3342,16 +3375,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8479223617116235</v>
+        <v>0.8094249272863341</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9398657503309562</v>
+        <v>0.9258922340529223</v>
       </c>
       <c r="F84" t="n">
         <v>1.0</v>
@@ -3360,10 +3393,10 @@
         <v>1.0</v>
       </c>
       <c r="H84" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I84" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85">
@@ -3371,28 +3404,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="C85" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8737012336556158</v>
+        <v>0.8384920876031096</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9471494151988216</v>
+        <v>0.9258922340529223</v>
       </c>
       <c r="F85" t="n">
-        <v>0.049517831889557336</v>
+        <v>0.2820581423374936</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2327338098809195</v>
+        <v>0.6910424487268594</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I85" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86">
@@ -3400,28 +3433,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8819151433203084</v>
+        <v>0.8449445581054986</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9471494151988216</v>
+        <v>0.9258922340529223</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5671646054737055</v>
+        <v>0.7089554405621605</v>
       </c>
       <c r="G86" t="n">
         <v>1.0</v>
       </c>
       <c r="H86" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I86" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87">
@@ -3429,28 +3462,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>3.0</v>
+        <v>64.0</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8853788011641159</v>
+        <v>0.845879719551208</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9471494151988216</v>
+        <v>0.9258922340529223</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0</v>
+        <v>0.13095352815374928</v>
       </c>
       <c r="G87" t="n">
-        <v>1.0</v>
+        <v>0.4211984878425541</v>
       </c>
       <c r="H87" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88">
@@ -3458,28 +3491,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9033777502848355</v>
+        <v>0.8479223617116235</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9552960117954582</v>
+        <v>0.9258922340529223</v>
       </c>
       <c r="F88" t="n">
-        <v>0.017811979885167483</v>
+        <v>1.0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1287943160927495</v>
+        <v>1.0</v>
       </c>
       <c r="H88" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I88" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89">
@@ -3487,28 +3520,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9281433994612616</v>
+        <v>0.8819151433203084</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9618913640052611</v>
+        <v>0.945067259669562</v>
       </c>
       <c r="F89" t="n">
-        <v>0.01563506505226445</v>
+        <v>0.5671646054737055</v>
       </c>
       <c r="G89" t="n">
-        <v>0.12400560130698102</v>
+        <v>1.0</v>
       </c>
       <c r="H89" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I89" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90">
@@ -3516,16 +3549,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D90" t="n">
-        <v>0.930525341265959</v>
+        <v>0.8853788011641159</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9618913640052611</v>
+        <v>0.945067259669562</v>
       </c>
       <c r="F90" t="n">
         <v>1.0</v>
@@ -3534,10 +3567,10 @@
         <v>1.0</v>
       </c>
       <c r="H90" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I90" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91">
@@ -3545,28 +3578,28 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9519484491375367</v>
+        <v>0.9033777502848355</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9636339474364755</v>
+        <v>0.9535654030784375</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2710249391718661</v>
+        <v>0.017811979885167483</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6885498454636597</v>
+        <v>0.13126215273894845</v>
       </c>
       <c r="H91" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I91" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92">
@@ -3574,28 +3607,28 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9531596653991224</v>
+        <v>0.9281433994612616</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9636339474364755</v>
+        <v>0.9608685589159358</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9531596653991224</v>
+        <v>0.01563506505226445</v>
       </c>
       <c r="G92" t="n">
-        <v>1.0</v>
+        <v>0.127686364593493</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I92" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93">
@@ -3606,13 +3639,13 @@
         <v>2.0</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9917796703597991</v>
+        <v>0.930525341265959</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9917796703597991</v>
+        <v>0.9608685589159358</v>
       </c>
       <c r="F93" t="n">
         <v>1.0</v>
@@ -3621,10 +3654,10 @@
         <v>1.0</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I93" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94">
@@ -3632,28 +3665,28 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" t="e">
-        <v>#N/A</v>
+        <v>107</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9519484491375367</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9632996618395387</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>0.2710249391718661</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0</v>
+        <v>0.6910424487268594</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95">
@@ -3661,28 +3694,144 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9531596653991224</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9632996618395387</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9531596653991224</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.99946900172762</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.99946900172762</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.04028415304092474</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.19739234990053123</v>
+      </c>
+      <c r="H96" t="s">
+        <v>201</v>
+      </c>
+      <c r="I96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="n">
         <v>0.0</v>
       </c>
-      <c r="C95" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" t="e">
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E95" t="e">
+      <c r="E97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F97" t="n">
         <v>0.0</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G97" t="n">
         <v>0.0</v>
       </c>
-      <c r="H95" t="s">
-        <v>196</v>
-      </c>
-      <c r="I95" t="s">
-        <v>289</v>
+      <c r="H97" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>203</v>
+      </c>
+      <c r="I98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
